--- a/www/IndicatorsPerCountry/UnitedStates_GDPperCapita_TerritorialRef_1946_2012_CCode_840.xlsx
+++ b/www/IndicatorsPerCountry/UnitedStates_GDPperCapita_TerritorialRef_1946_2012_CCode_840.xlsx
@@ -702,13 +702,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/UnitedStates_GDPperCapita_TerritorialRef_1946_2012_CCode_840.xlsx
+++ b/www/IndicatorsPerCountry/UnitedStates_GDPperCapita_TerritorialRef_1946_2012_CCode_840.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="237">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,643 +36,658 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>587</t>
+    <t>897</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>1232</t>
-  </si>
-  <si>
-    <t>1296</t>
-  </si>
-  <si>
-    <t>1320</t>
-  </si>
-  <si>
-    <t>1341</t>
-  </si>
-  <si>
-    <t>1319</t>
-  </si>
-  <si>
-    <t>1318</t>
-  </si>
-  <si>
-    <t>1345</t>
-  </si>
-  <si>
-    <t>1370</t>
-  </si>
-  <si>
-    <t>1383</t>
-  </si>
-  <si>
-    <t>1286</t>
-  </si>
-  <si>
-    <t>1349</t>
-  </si>
-  <si>
-    <t>1388</t>
-  </si>
-  <si>
-    <t>1415</t>
-  </si>
-  <si>
-    <t>1391</t>
-  </si>
-  <si>
-    <t>1406</t>
-  </si>
-  <si>
-    <t>1433</t>
-  </si>
-  <si>
-    <t>1427</t>
-  </si>
-  <si>
-    <t>1369</t>
-  </si>
-  <si>
-    <t>1368</t>
-  </si>
-  <si>
-    <t>1372</t>
-  </si>
-  <si>
-    <t>1361</t>
-  </si>
-  <si>
-    <t>1382</t>
-  </si>
-  <si>
-    <t>1420</t>
-  </si>
-  <si>
-    <t>1405</t>
-  </si>
-  <si>
-    <t>1443</t>
-  </si>
-  <si>
-    <t>1475</t>
-  </si>
-  <si>
-    <t>1485</t>
-  </si>
-  <si>
-    <t>1491</t>
-  </si>
-  <si>
-    <t>1442</t>
-  </si>
-  <si>
-    <t>1547</t>
-  </si>
-  <si>
-    <t>1642</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1761</t>
-  </si>
-  <si>
-    <t>1677</t>
-  </si>
-  <si>
-    <t>1741</t>
-  </si>
-  <si>
-    <t>1766</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1695</t>
-  </si>
-  <si>
-    <t>1778</t>
-  </si>
-  <si>
-    <t>1690</t>
-  </si>
-  <si>
-    <t>1655</t>
-  </si>
-  <si>
-    <t>1641</t>
-  </si>
-  <si>
-    <t>1666</t>
-  </si>
-  <si>
-    <t>1757</t>
-  </si>
-  <si>
-    <t>1785</t>
-  </si>
-  <si>
-    <t>1795</t>
-  </si>
-  <si>
-    <t>1842</t>
-  </si>
-  <si>
-    <t>1890</t>
-  </si>
-  <si>
-    <t>1841</t>
-  </si>
-  <si>
-    <t>1849</t>
-  </si>
-  <si>
-    <t>1924</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2160</t>
-  </si>
-  <si>
-    <t>2166</t>
-  </si>
-  <si>
-    <t>2118</t>
-  </si>
-  <si>
-    <t>2163</t>
-  </si>
-  <si>
-    <t>2115</t>
-  </si>
-  <si>
-    <t>2126</t>
-  </si>
-  <si>
-    <t>2183</t>
-  </si>
-  <si>
-    <t>2241</t>
-  </si>
-  <si>
-    <t>2195</t>
-  </si>
-  <si>
-    <t>2263</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2489</t>
-  </si>
-  <si>
-    <t>2360</t>
-  </si>
-  <si>
-    <t>2342</t>
+    <t>1768.9856</t>
   </si>
   <si>
     <t>2419</t>
   </si>
   <si>
-    <t>2451</t>
-  </si>
-  <si>
-    <t>2516</t>
-  </si>
-  <si>
-    <t>2445</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2541</t>
-  </si>
-  <si>
-    <t>2604</t>
-  </si>
-  <si>
-    <t>2527</t>
-  </si>
-  <si>
-    <t>2599</t>
-  </si>
-  <si>
-    <t>2570</t>
-  </si>
-  <si>
-    <t>2595</t>
-  </si>
-  <si>
-    <t>2646</t>
-  </si>
-  <si>
-    <t>2909</t>
-  </si>
-  <si>
-    <t>3184</t>
-  </si>
-  <si>
-    <t>3215</t>
-  </si>
-  <si>
-    <t>3338</t>
-  </si>
-  <si>
-    <t>3339</t>
-  </si>
-  <si>
-    <t>3320</t>
-  </si>
-  <si>
-    <t>3270</t>
-  </si>
-  <si>
-    <t>3294</t>
-  </si>
-  <si>
-    <t>3368</t>
-  </si>
-  <si>
-    <t>3282</t>
-  </si>
-  <si>
-    <t>3413</t>
-  </si>
-  <si>
-    <t>3392</t>
-  </si>
-  <si>
-    <t>3467</t>
-  </si>
-  <si>
-    <t>3728</t>
-  </si>
-  <si>
-    <t>3478</t>
-  </si>
-  <si>
-    <t>3314</t>
-  </si>
-  <si>
-    <t>3644</t>
-  </si>
-  <si>
-    <t>3504</t>
-  </si>
-  <si>
-    <t>3769</t>
-  </si>
-  <si>
-    <t>3780</t>
-  </si>
-  <si>
-    <t>4051</t>
-  </si>
-  <si>
-    <t>4091</t>
-  </si>
-  <si>
-    <t>4464</t>
-  </si>
-  <si>
-    <t>4421</t>
-  </si>
-  <si>
-    <t>4551</t>
-  </si>
-  <si>
-    <t>4410</t>
-  </si>
-  <si>
-    <t>4642</t>
-  </si>
-  <si>
-    <t>5079</t>
-  </si>
-  <si>
-    <t>5065</t>
-  </si>
-  <si>
-    <t>4561</t>
-  </si>
-  <si>
-    <t>5017</t>
-  </si>
-  <si>
-    <t>4964</t>
-  </si>
-  <si>
-    <t>5046</t>
-  </si>
-  <si>
-    <t>5201</t>
-  </si>
-  <si>
-    <t>5301</t>
-  </si>
-  <si>
-    <t>4799</t>
-  </si>
-  <si>
-    <t>4864</t>
-  </si>
-  <si>
-    <t>5459</t>
-  </si>
-  <si>
-    <t>5248</t>
-  </si>
-  <si>
-    <t>5659</t>
-  </si>
-  <si>
-    <t>5680</t>
-  </si>
-  <si>
-    <t>5552</t>
-  </si>
-  <si>
-    <t>5323</t>
-  </si>
-  <si>
-    <t>5540</t>
-  </si>
-  <si>
-    <t>6164</t>
-  </si>
-  <si>
-    <t>6233</t>
-  </si>
-  <si>
-    <t>6282</t>
-  </si>
-  <si>
-    <t>6602</t>
-  </si>
-  <si>
-    <t>6576</t>
-  </si>
-  <si>
-    <t>6569</t>
-  </si>
-  <si>
-    <t>6899</t>
-  </si>
-  <si>
-    <t>6213</t>
-  </si>
-  <si>
-    <t>5691</t>
-  </si>
-  <si>
-    <t>4908</t>
-  </si>
-  <si>
-    <t>4777</t>
-  </si>
-  <si>
-    <t>5114</t>
-  </si>
-  <si>
-    <t>5467</t>
-  </si>
-  <si>
-    <t>6204</t>
-  </si>
-  <si>
-    <t>6430</t>
-  </si>
-  <si>
-    <t>6126</t>
-  </si>
-  <si>
-    <t>6561</t>
-  </si>
-  <si>
-    <t>7010</t>
-  </si>
-  <si>
-    <t>8206</t>
-  </si>
-  <si>
-    <t>9741</t>
-  </si>
-  <si>
-    <t>11518</t>
-  </si>
-  <si>
-    <t>12333</t>
-  </si>
-  <si>
-    <t>11709</t>
-  </si>
-  <si>
-    <t>9197</t>
-  </si>
-  <si>
-    <t>8886</t>
-  </si>
-  <si>
-    <t>9065</t>
-  </si>
-  <si>
-    <t>8944</t>
-  </si>
-  <si>
-    <t>9561</t>
-  </si>
-  <si>
-    <t>10116</t>
-  </si>
-  <si>
-    <t>10316</t>
-  </si>
-  <si>
-    <t>10613</t>
-  </si>
-  <si>
-    <t>10359</t>
-  </si>
-  <si>
-    <t>10897</t>
-  </si>
-  <si>
-    <t>10914</t>
-  </si>
-  <si>
-    <t>10920</t>
-  </si>
-  <si>
-    <t>10631</t>
-  </si>
-  <si>
-    <t>11230</t>
-  </si>
-  <si>
-    <t>11328</t>
-  </si>
-  <si>
-    <t>11402</t>
-  </si>
-  <si>
-    <t>11905</t>
-  </si>
-  <si>
-    <t>12242</t>
-  </si>
-  <si>
-    <t>12773</t>
-  </si>
-  <si>
-    <t>13419</t>
-  </si>
-  <si>
-    <t>14134</t>
-  </si>
-  <si>
-    <t>14330</t>
-  </si>
-  <si>
-    <t>14863</t>
-  </si>
-  <si>
-    <t>15179</t>
-  </si>
-  <si>
-    <t>15030</t>
-  </si>
-  <si>
-    <t>15304</t>
-  </si>
-  <si>
-    <t>15944</t>
-  </si>
-  <si>
-    <t>16689</t>
-  </si>
-  <si>
-    <t>16491</t>
-  </si>
-  <si>
-    <t>16284</t>
-  </si>
-  <si>
-    <t>16975</t>
-  </si>
-  <si>
-    <t>17567</t>
-  </si>
-  <si>
-    <t>18373</t>
-  </si>
-  <si>
-    <t>18789</t>
-  </si>
-  <si>
-    <t>18577</t>
-  </si>
-  <si>
-    <t>18856</t>
-  </si>
-  <si>
-    <t>18325</t>
-  </si>
-  <si>
-    <t>18920</t>
-  </si>
-  <si>
-    <t>20123</t>
-  </si>
-  <si>
-    <t>20717</t>
-  </si>
-  <si>
-    <t>21236</t>
-  </si>
-  <si>
-    <t>21788</t>
-  </si>
-  <si>
-    <t>22499</t>
-  </si>
-  <si>
-    <t>23059</t>
-  </si>
-  <si>
-    <t>23200.5603124</t>
-  </si>
-  <si>
-    <t>22832.7900459</t>
-  </si>
-  <si>
-    <t>23284.9818797</t>
-  </si>
-  <si>
-    <t>23640.1125796</t>
-  </si>
-  <si>
-    <t>24312.7889585</t>
-  </si>
-  <si>
-    <t>24637.3298563</t>
-  </si>
-  <si>
-    <t>25263.1016491</t>
-  </si>
-  <si>
-    <t>26074.2394226</t>
-  </si>
-  <si>
-    <t>26893.4508583</t>
-  </si>
-  <si>
-    <t>27869.8120277</t>
-  </si>
-  <si>
-    <t>28701.9343183</t>
-  </si>
-  <si>
-    <t>28726.0943193</t>
-  </si>
-  <si>
-    <t>28976.9301927</t>
-  </si>
-  <si>
-    <t>29458.9225069</t>
-  </si>
-  <si>
-    <t>30199.8008606</t>
-  </si>
-  <si>
-    <t>30841.6454964</t>
-  </si>
-  <si>
-    <t>31357.5395877</t>
-  </si>
-  <si>
-    <t>31654.9267549</t>
-  </si>
-  <si>
-    <t>31251.2664903</t>
-  </si>
-  <si>
-    <t>29898.6442165</t>
-  </si>
-  <si>
-    <t>30491.3443808</t>
+    <t>2545.488</t>
+  </si>
+  <si>
+    <t>2591.7696</t>
+  </si>
+  <si>
+    <t>2635.48</t>
+  </si>
+  <si>
+    <t>2590.484</t>
+  </si>
+  <si>
+    <t>2587.9128</t>
+  </si>
+  <si>
+    <t>2643.1936</t>
+  </si>
+  <si>
+    <t>2690.7608</t>
+  </si>
+  <si>
+    <t>2717.7584</t>
+  </si>
+  <si>
+    <t>2526.204</t>
+  </si>
+  <si>
+    <t>2652.1928</t>
+  </si>
+  <si>
+    <t>2725.472</t>
+  </si>
+  <si>
+    <t>2780.7528</t>
+  </si>
+  <si>
+    <t>2731.9</t>
+  </si>
+  <si>
+    <t>2762.7544</t>
+  </si>
+  <si>
+    <t>2815.464</t>
+  </si>
+  <si>
+    <t>2803.8936</t>
+  </si>
+  <si>
+    <t>2688.1896</t>
+  </si>
+  <si>
+    <t>2694.6176</t>
+  </si>
+  <si>
+    <t>2674.048</t>
+  </si>
+  <si>
+    <t>2715.1872</t>
+  </si>
+  <si>
+    <t>2791.0376</t>
+  </si>
+  <si>
+    <t>2760.1832</t>
+  </si>
+  <si>
+    <t>2836.0336</t>
+  </si>
+  <si>
+    <t>2897.7424</t>
+  </si>
+  <si>
+    <t>2918.312</t>
+  </si>
+  <si>
+    <t>2929.8824</t>
+  </si>
+  <si>
+    <t>2833.4624</t>
+  </si>
+  <si>
+    <t>3039.1584</t>
+  </si>
+  <si>
+    <t>3225.5704</t>
+  </si>
+  <si>
+    <t>3342.56</t>
+  </si>
+  <si>
+    <t>3459.5496</t>
+  </si>
+  <si>
+    <t>3294.9928</t>
+  </si>
+  <si>
+    <t>3419.696</t>
+  </si>
+  <si>
+    <t>3469.8344</t>
+  </si>
+  <si>
+    <t>3360.5584</t>
+  </si>
+  <si>
+    <t>3329.704</t>
+  </si>
+  <si>
+    <t>3491.6896</t>
+  </si>
+  <si>
+    <t>3319.4192</t>
+  </si>
+  <si>
+    <t>3252.568</t>
+  </si>
+  <si>
+    <t>3222.9992</t>
+  </si>
+  <si>
+    <t>3274.4232</t>
+  </si>
+  <si>
+    <t>3453.1216</t>
+  </si>
+  <si>
+    <t>3505.8312</t>
+  </si>
+  <si>
+    <t>3526.4008</t>
+  </si>
+  <si>
+    <t>3618.964</t>
+  </si>
+  <si>
+    <t>3712.8128</t>
+  </si>
+  <si>
+    <t>3616.3928</t>
+  </si>
+  <si>
+    <t>3631.82</t>
+  </si>
+  <si>
+    <t>3778.3784</t>
+  </si>
+  <si>
+    <t>3971.2184</t>
+  </si>
+  <si>
+    <t>4242.48</t>
+  </si>
+  <si>
+    <t>4254.0504</t>
+  </si>
+  <si>
+    <t>4161.4872</t>
+  </si>
+  <si>
+    <t>4247.6224</t>
+  </si>
+  <si>
+    <t>4156.3448</t>
+  </si>
+  <si>
+    <t>4176.9144</t>
+  </si>
+  <si>
+    <t>4288.7616</t>
+  </si>
+  <si>
+    <t>4401.8944</t>
+  </si>
+  <si>
+    <t>4311.9024</t>
+  </si>
+  <si>
+    <t>4446.8904</t>
+  </si>
+  <si>
+    <t>4733.5792</t>
+  </si>
+  <si>
+    <t>4889.1368</t>
+  </si>
+  <si>
+    <t>4637.1592</t>
+  </si>
+  <si>
+    <t>4599.8768</t>
+  </si>
+  <si>
+    <t>4751.5776</t>
+  </si>
+  <si>
+    <t>4815.8576</t>
+  </si>
+  <si>
+    <t>4943.132</t>
+  </si>
+  <si>
+    <t>4803.0016</t>
+  </si>
+  <si>
+    <t>4918.7056</t>
+  </si>
+  <si>
+    <t>4991.9848</t>
+  </si>
+  <si>
+    <t>5116.688</t>
+  </si>
+  <si>
+    <t>4964.9872</t>
+  </si>
+  <si>
+    <t>5105.1176</t>
+  </si>
+  <si>
+    <t>5049.8368</t>
+  </si>
+  <si>
+    <t>5098.6896</t>
+  </si>
+  <si>
+    <t>5198.9664</t>
+  </si>
+  <si>
+    <t>5715.7776</t>
+  </si>
+  <si>
+    <t>6255.7296</t>
+  </si>
+  <si>
+    <t>6317.4384</t>
+  </si>
+  <si>
+    <t>6557.8456</t>
+  </si>
+  <si>
+    <t>6559.1312</t>
+  </si>
+  <si>
+    <t>6523.1344</t>
+  </si>
+  <si>
+    <t>6424.1432</t>
+  </si>
+  <si>
+    <t>6471.7104</t>
+  </si>
+  <si>
+    <t>6616.9832</t>
+  </si>
+  <si>
+    <t>6447.284</t>
+  </si>
+  <si>
+    <t>6705.6896</t>
+  </si>
+  <si>
+    <t>6664.5504</t>
+  </si>
+  <si>
+    <t>6811.1088</t>
+  </si>
+  <si>
+    <t>7324.0632</t>
+  </si>
+  <si>
+    <t>6834.2496</t>
+  </si>
+  <si>
+    <t>6510.2784</t>
+  </si>
+  <si>
+    <t>7159.5064</t>
+  </si>
+  <si>
+    <t>6885.6736</t>
+  </si>
+  <si>
+    <t>7406.3416</t>
+  </si>
+  <si>
+    <t>7426.9112</t>
+  </si>
+  <si>
+    <t>7959.1496</t>
+  </si>
+  <si>
+    <t>8037.5712</t>
+  </si>
+  <si>
+    <t>8770.3632</t>
+  </si>
+  <si>
+    <t>8684.228</t>
+  </si>
+  <si>
+    <t>8941.348</t>
+  </si>
+  <si>
+    <t>8663.6584</t>
+  </si>
+  <si>
+    <t>9121.332</t>
+  </si>
+  <si>
+    <t>9980.1128</t>
+  </si>
+  <si>
+    <t>9950.544</t>
+  </si>
+  <si>
+    <t>8975.97607347158</t>
+  </si>
+  <si>
+    <t>9798.11816596251</t>
+  </si>
+  <si>
+    <t>9636.78272182369</t>
+  </si>
+  <si>
+    <t>9735.88927616225</t>
+  </si>
+  <si>
+    <t>9976.56705254048</t>
+  </si>
+  <si>
+    <t>10107.9694070892</t>
+  </si>
+  <si>
+    <t>9096.37197572402</t>
+  </si>
+  <si>
+    <t>9164.17677403762</t>
+  </si>
+  <si>
+    <t>10222.3198508729</t>
+  </si>
+  <si>
+    <t>9769.07800102039</t>
+  </si>
+  <si>
+    <t>10471.3057823186</t>
+  </si>
+  <si>
+    <t>10449.7802701896</t>
+  </si>
+  <si>
+    <t>10152.927108763</t>
+  </si>
+  <si>
+    <t>9674.88048757292</t>
+  </si>
+  <si>
+    <t>10009.7152770361</t>
+  </si>
+  <si>
+    <t>11071.2429779556</t>
+  </si>
+  <si>
+    <t>11126.7129834632</t>
+  </si>
+  <si>
+    <t>11149.7720266213</t>
+  </si>
+  <si>
+    <t>11647.7677781461</t>
+  </si>
+  <si>
+    <t>11532.3978990644</t>
+  </si>
+  <si>
+    <t>11451.0689602393</t>
+  </si>
+  <si>
+    <t>11954.2353457503</t>
+  </si>
+  <si>
+    <t>10694.9820752827</t>
+  </si>
+  <si>
+    <t>9930.96339397551</t>
+  </si>
+  <si>
+    <t>8380.50437668054</t>
+  </si>
+  <si>
+    <t>8048.22451582433</t>
+  </si>
+  <si>
+    <t>8667.09184871957</t>
+  </si>
+  <si>
+    <t>9680.83864274588</t>
+  </si>
+  <si>
+    <t>10568.012351748</t>
+  </si>
+  <si>
+    <t>11295.0989480103</t>
+  </si>
+  <si>
+    <t>10526.1335711717</t>
+  </si>
+  <si>
+    <t>11171.4481057369</t>
+  </si>
+  <si>
+    <t>12005.0951632151</t>
+  </si>
+  <si>
+    <t>13553.4016612363</t>
+  </si>
+  <si>
+    <t>14869.8611529471</t>
+  </si>
+  <si>
+    <t>16050.2174162196</t>
+  </si>
+  <si>
+    <t>16999.3271675819</t>
+  </si>
+  <si>
+    <t>16477.5517664725</t>
+  </si>
+  <si>
+    <t>14822.4664745637</t>
+  </si>
+  <si>
+    <t>14311.547192312</t>
+  </si>
+  <si>
+    <t>14734.232124</t>
+  </si>
+  <si>
+    <t>14196.672</t>
+  </si>
+  <si>
+    <t>15240</t>
+  </si>
+  <si>
+    <t>16125</t>
+  </si>
+  <si>
+    <t>16444</t>
+  </si>
+  <si>
+    <t>16917</t>
+  </si>
+  <si>
+    <t>16512</t>
+  </si>
+  <si>
+    <t>17370</t>
+  </si>
+  <si>
+    <t>17397</t>
+  </si>
+  <si>
+    <t>17406</t>
+  </si>
+  <si>
+    <t>16946</t>
+  </si>
+  <si>
+    <t>17900</t>
+  </si>
+  <si>
+    <t>18057</t>
+  </si>
+  <si>
+    <t>18175</t>
+  </si>
+  <si>
+    <t>18976</t>
+  </si>
+  <si>
+    <t>19514</t>
+  </si>
+  <si>
+    <t>20360</t>
+  </si>
+  <si>
+    <t>21390</t>
+  </si>
+  <si>
+    <t>22529</t>
+  </si>
+  <si>
+    <t>22842</t>
+  </si>
+  <si>
+    <t>23691</t>
+  </si>
+  <si>
+    <t>24195</t>
+  </si>
+  <si>
+    <t>23958</t>
+  </si>
+  <si>
+    <t>24394</t>
+  </si>
+  <si>
+    <t>25414</t>
+  </si>
+  <si>
+    <t>26602</t>
+  </si>
+  <si>
+    <t>26286</t>
+  </si>
+  <si>
+    <t>25956</t>
+  </si>
+  <si>
+    <t>27058</t>
+  </si>
+  <si>
+    <t>28001</t>
+  </si>
+  <si>
+    <t>29286</t>
+  </si>
+  <si>
+    <t>29949</t>
+  </si>
+  <si>
+    <t>29611</t>
+  </si>
+  <si>
+    <t>30056</t>
+  </si>
+  <si>
+    <t>29210</t>
+  </si>
+  <si>
+    <t>30158</t>
+  </si>
+  <si>
+    <t>32076</t>
+  </si>
+  <si>
+    <t>33023</t>
+  </si>
+  <si>
+    <t>33850</t>
+  </si>
+  <si>
+    <t>34730</t>
+  </si>
+  <si>
+    <t>35863</t>
+  </si>
+  <si>
+    <t>36756</t>
+  </si>
+  <si>
+    <t>36982</t>
+  </si>
+  <si>
+    <t>36463.9576372927</t>
+  </si>
+  <si>
+    <t>37240.2990340352</t>
+  </si>
+  <si>
+    <t>37761.5351673423</t>
+  </si>
+  <si>
+    <t>38807.2799719927</t>
+  </si>
+  <si>
+    <t>39390.6254014683</t>
+  </si>
+  <si>
+    <t>40412.7510313364</t>
+  </si>
+  <si>
+    <t>41722.6703296506</t>
+  </si>
+  <si>
+    <t>43072.7580210956</t>
+  </si>
+  <si>
+    <t>44575.8486270216</t>
+  </si>
+  <si>
+    <t>45886.470498289</t>
+  </si>
+  <si>
+    <t>45878.0091539558</t>
+  </si>
+  <si>
+    <t>46266.2958914322</t>
+  </si>
+  <si>
+    <t>47157.9952711394</t>
+  </si>
+  <si>
+    <t>48492.7171226118</t>
+  </si>
+  <si>
+    <t>49654.7614251066</t>
+  </si>
+  <si>
+    <t>50489.8600218329</t>
+  </si>
+  <si>
+    <t>50901.7447045065</t>
+  </si>
+  <si>
+    <t>50275.7463371433</t>
+  </si>
+  <si>
+    <t>48452.9335040747</t>
+  </si>
+  <si>
+    <t>49266.9158622061</t>
+  </si>
+  <si>
+    <t>49675</t>
+  </si>
+  <si>
+    <t>50394</t>
+  </si>
+  <si>
+    <t>50863</t>
+  </si>
+  <si>
+    <t>51664</t>
+  </si>
+  <si>
+    <t>52591</t>
+  </si>
+  <si>
+    <t>53015</t>
   </si>
   <si>
     <t>Description</t>
@@ -3612,7 +3627,7 @@
         <v>1816.0</v>
       </c>
       <c r="E168" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169">
@@ -3629,7 +3644,7 @@
         <v>1817.0</v>
       </c>
       <c r="E169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170">
@@ -3646,7 +3661,7 @@
         <v>1818.0</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171">
@@ -3663,7 +3678,7 @@
         <v>1819.0</v>
       </c>
       <c r="E171" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172">
@@ -3680,7 +3695,7 @@
         <v>1820.0</v>
       </c>
       <c r="E172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173">
@@ -3697,7 +3712,7 @@
         <v>1821.0</v>
       </c>
       <c r="E173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174">
@@ -3714,7 +3729,7 @@
         <v>1822.0</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175">
@@ -3731,7 +3746,7 @@
         <v>1823.0</v>
       </c>
       <c r="E175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176">
@@ -3748,7 +3763,7 @@
         <v>1824.0</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177">
@@ -3765,7 +3780,7 @@
         <v>1825.0</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
@@ -3782,7 +3797,7 @@
         <v>1826.0</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179">
@@ -3799,7 +3814,7 @@
         <v>1827.0</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180">
@@ -3816,7 +3831,7 @@
         <v>1828.0</v>
       </c>
       <c r="E180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="181">
@@ -3833,7 +3848,7 @@
         <v>1829.0</v>
       </c>
       <c r="E181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182">
@@ -3850,7 +3865,7 @@
         <v>1830.0</v>
       </c>
       <c r="E182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183">
@@ -3867,7 +3882,7 @@
         <v>1831.0</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184">
@@ -3884,7 +3899,7 @@
         <v>1832.0</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185">
@@ -3901,7 +3916,7 @@
         <v>1833.0</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186">
@@ -3918,7 +3933,7 @@
         <v>1834.0</v>
       </c>
       <c r="E186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="187">
@@ -3935,7 +3950,7 @@
         <v>1835.0</v>
       </c>
       <c r="E187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="188">
@@ -3952,7 +3967,7 @@
         <v>1836.0</v>
       </c>
       <c r="E188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189">
@@ -3969,7 +3984,7 @@
         <v>1837.0</v>
       </c>
       <c r="E189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190">
@@ -3986,7 +4001,7 @@
         <v>1838.0</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="191">
@@ -4003,7 +4018,7 @@
         <v>1839.0</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="192">
@@ -4020,7 +4035,7 @@
         <v>1840.0</v>
       </c>
       <c r="E192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193">
@@ -4037,7 +4052,7 @@
         <v>1841.0</v>
       </c>
       <c r="E193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="194">
@@ -4054,7 +4069,7 @@
         <v>1842.0</v>
       </c>
       <c r="E194" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195">
@@ -4071,7 +4086,7 @@
         <v>1843.0</v>
       </c>
       <c r="E195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="196">
@@ -4088,7 +4103,7 @@
         <v>1844.0</v>
       </c>
       <c r="E196" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="197">
@@ -4105,7 +4120,7 @@
         <v>1845.0</v>
       </c>
       <c r="E197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="198">
@@ -4122,7 +4137,7 @@
         <v>1846.0</v>
       </c>
       <c r="E198" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="199">
@@ -4139,7 +4154,7 @@
         <v>1847.0</v>
       </c>
       <c r="E199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200">
@@ -4156,7 +4171,7 @@
         <v>1848.0</v>
       </c>
       <c r="E200" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201">
@@ -4173,7 +4188,7 @@
         <v>1849.0</v>
       </c>
       <c r="E201" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="202">
@@ -4190,7 +4205,7 @@
         <v>1850.0</v>
       </c>
       <c r="E202" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="203">
@@ -4207,7 +4222,7 @@
         <v>1851.0</v>
       </c>
       <c r="E203" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204">
@@ -4224,7 +4239,7 @@
         <v>1852.0</v>
       </c>
       <c r="E204" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205">
@@ -4241,7 +4256,7 @@
         <v>1853.0</v>
       </c>
       <c r="E205" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206">
@@ -4258,7 +4273,7 @@
         <v>1854.0</v>
       </c>
       <c r="E206" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207">
@@ -4275,7 +4290,7 @@
         <v>1855.0</v>
       </c>
       <c r="E207" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="208">
@@ -4292,7 +4307,7 @@
         <v>1856.0</v>
       </c>
       <c r="E208" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209">
@@ -4309,7 +4324,7 @@
         <v>1857.0</v>
       </c>
       <c r="E209" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210">
@@ -4326,7 +4341,7 @@
         <v>1858.0</v>
       </c>
       <c r="E210" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211">
@@ -4343,7 +4358,7 @@
         <v>1859.0</v>
       </c>
       <c r="E211" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212">
@@ -4360,7 +4375,7 @@
         <v>1860.0</v>
       </c>
       <c r="E212" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213">
@@ -4377,7 +4392,7 @@
         <v>1861.0</v>
       </c>
       <c r="E213" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214">
@@ -4394,7 +4409,7 @@
         <v>1862.0</v>
       </c>
       <c r="E214" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215">
@@ -4411,7 +4426,7 @@
         <v>1863.0</v>
       </c>
       <c r="E215" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216">
@@ -4428,7 +4443,7 @@
         <v>1864.0</v>
       </c>
       <c r="E216" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217">
@@ -4445,7 +4460,7 @@
         <v>1865.0</v>
       </c>
       <c r="E217" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218">
@@ -4462,7 +4477,7 @@
         <v>1866.0</v>
       </c>
       <c r="E218" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="219">
@@ -4479,7 +4494,7 @@
         <v>1867.0</v>
       </c>
       <c r="E219" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220">
@@ -4496,7 +4511,7 @@
         <v>1868.0</v>
       </c>
       <c r="E220" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221">
@@ -4513,7 +4528,7 @@
         <v>1869.0</v>
       </c>
       <c r="E221" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222">
@@ -4530,7 +4545,7 @@
         <v>1870.0</v>
       </c>
       <c r="E222" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="223">
@@ -4547,7 +4562,7 @@
         <v>1871.0</v>
       </c>
       <c r="E223" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="224">
@@ -4564,7 +4579,7 @@
         <v>1872.0</v>
       </c>
       <c r="E224" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="225">
@@ -4581,7 +4596,7 @@
         <v>1873.0</v>
       </c>
       <c r="E225" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226">
@@ -4598,7 +4613,7 @@
         <v>1874.0</v>
       </c>
       <c r="E226" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227">
@@ -4615,7 +4630,7 @@
         <v>1875.0</v>
       </c>
       <c r="E227" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="228">
@@ -4632,7 +4647,7 @@
         <v>1876.0</v>
       </c>
       <c r="E228" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="229">
@@ -4649,7 +4664,7 @@
         <v>1877.0</v>
       </c>
       <c r="E229" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="230">
@@ -4666,7 +4681,7 @@
         <v>1878.0</v>
       </c>
       <c r="E230" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="231">
@@ -4683,7 +4698,7 @@
         <v>1879.0</v>
       </c>
       <c r="E231" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="232">
@@ -4700,7 +4715,7 @@
         <v>1880.0</v>
       </c>
       <c r="E232" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="233">
@@ -4717,7 +4732,7 @@
         <v>1881.0</v>
       </c>
       <c r="E233" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="234">
@@ -4734,7 +4749,7 @@
         <v>1882.0</v>
       </c>
       <c r="E234" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235">
@@ -4751,7 +4766,7 @@
         <v>1883.0</v>
       </c>
       <c r="E235" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="236">
@@ -4768,7 +4783,7 @@
         <v>1884.0</v>
       </c>
       <c r="E236" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="237">
@@ -4785,7 +4800,7 @@
         <v>1885.0</v>
       </c>
       <c r="E237" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="238">
@@ -4802,7 +4817,7 @@
         <v>1886.0</v>
       </c>
       <c r="E238" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="239">
@@ -4819,7 +4834,7 @@
         <v>1887.0</v>
       </c>
       <c r="E239" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="240">
@@ -4836,7 +4851,7 @@
         <v>1888.0</v>
       </c>
       <c r="E240" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="241">
@@ -4853,7 +4868,7 @@
         <v>1889.0</v>
       </c>
       <c r="E241" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="242">
@@ -4870,7 +4885,7 @@
         <v>1890.0</v>
       </c>
       <c r="E242" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="243">
@@ -4887,7 +4902,7 @@
         <v>1891.0</v>
       </c>
       <c r="E243" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="244">
@@ -4904,7 +4919,7 @@
         <v>1892.0</v>
       </c>
       <c r="E244" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="245">
@@ -4921,7 +4936,7 @@
         <v>1893.0</v>
       </c>
       <c r="E245" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="246">
@@ -4938,7 +4953,7 @@
         <v>1894.0</v>
       </c>
       <c r="E246" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="247">
@@ -4955,7 +4970,7 @@
         <v>1895.0</v>
       </c>
       <c r="E247" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248">
@@ -4972,7 +4987,7 @@
         <v>1896.0</v>
       </c>
       <c r="E248" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="249">
@@ -4989,7 +5004,7 @@
         <v>1897.0</v>
       </c>
       <c r="E249" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="250">
@@ -5006,7 +5021,7 @@
         <v>1898.0</v>
       </c>
       <c r="E250" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="251">
@@ -5023,7 +5038,7 @@
         <v>1899.0</v>
       </c>
       <c r="E251" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="252">
@@ -5040,7 +5055,7 @@
         <v>1900.0</v>
       </c>
       <c r="E252" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="253">
@@ -5057,7 +5072,7 @@
         <v>1901.0</v>
       </c>
       <c r="E253" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="254">
@@ -5074,7 +5089,7 @@
         <v>1902.0</v>
       </c>
       <c r="E254" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="255">
@@ -5091,7 +5106,7 @@
         <v>1903.0</v>
       </c>
       <c r="E255" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5123,7 @@
         <v>1904.0</v>
       </c>
       <c r="E256" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="257">
@@ -5125,7 +5140,7 @@
         <v>1905.0</v>
       </c>
       <c r="E257" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="258">
@@ -5142,7 +5157,7 @@
         <v>1906.0</v>
       </c>
       <c r="E258" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="259">
@@ -5159,7 +5174,7 @@
         <v>1907.0</v>
       </c>
       <c r="E259" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="260">
@@ -5176,7 +5191,7 @@
         <v>1908.0</v>
       </c>
       <c r="E260" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="261">
@@ -5193,7 +5208,7 @@
         <v>1909.0</v>
       </c>
       <c r="E261" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="262">
@@ -5210,7 +5225,7 @@
         <v>1910.0</v>
       </c>
       <c r="E262" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="263">
@@ -5227,7 +5242,7 @@
         <v>1911.0</v>
       </c>
       <c r="E263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264">
@@ -5244,7 +5259,7 @@
         <v>1912.0</v>
       </c>
       <c r="E264" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="265">
@@ -5261,7 +5276,7 @@
         <v>1913.0</v>
       </c>
       <c r="E265" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="266">
@@ -5278,7 +5293,7 @@
         <v>1914.0</v>
       </c>
       <c r="E266" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="267">
@@ -5295,7 +5310,7 @@
         <v>1915.0</v>
       </c>
       <c r="E267" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="268">
@@ -5312,7 +5327,7 @@
         <v>1916.0</v>
       </c>
       <c r="E268" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="269">
@@ -5329,7 +5344,7 @@
         <v>1917.0</v>
       </c>
       <c r="E269" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="270">
@@ -5346,7 +5361,7 @@
         <v>1918.0</v>
       </c>
       <c r="E270" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="271">
@@ -5363,7 +5378,7 @@
         <v>1919.0</v>
       </c>
       <c r="E271" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="272">
@@ -5380,7 +5395,7 @@
         <v>1920.0</v>
       </c>
       <c r="E272" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="273">
@@ -5397,7 +5412,7 @@
         <v>1921.0</v>
       </c>
       <c r="E273" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="274">
@@ -5414,7 +5429,7 @@
         <v>1922.0</v>
       </c>
       <c r="E274" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="275">
@@ -5431,7 +5446,7 @@
         <v>1923.0</v>
       </c>
       <c r="E275" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="276">
@@ -5448,7 +5463,7 @@
         <v>1924.0</v>
       </c>
       <c r="E276" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="277">
@@ -5465,7 +5480,7 @@
         <v>1925.0</v>
       </c>
       <c r="E277" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="278">
@@ -5482,7 +5497,7 @@
         <v>1926.0</v>
       </c>
       <c r="E278" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="279">
@@ -5499,7 +5514,7 @@
         <v>1927.0</v>
       </c>
       <c r="E279" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="280">
@@ -5516,7 +5531,7 @@
         <v>1928.0</v>
       </c>
       <c r="E280" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="281">
@@ -5533,7 +5548,7 @@
         <v>1929.0</v>
       </c>
       <c r="E281" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="282">
@@ -5550,7 +5565,7 @@
         <v>1930.0</v>
       </c>
       <c r="E282" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="283">
@@ -5567,7 +5582,7 @@
         <v>1931.0</v>
       </c>
       <c r="E283" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="284">
@@ -5584,7 +5599,7 @@
         <v>1932.0</v>
       </c>
       <c r="E284" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="285">
@@ -5601,7 +5616,7 @@
         <v>1933.0</v>
       </c>
       <c r="E285" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="286">
@@ -5618,7 +5633,7 @@
         <v>1934.0</v>
       </c>
       <c r="E286" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="287">
@@ -5635,7 +5650,7 @@
         <v>1935.0</v>
       </c>
       <c r="E287" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="288">
@@ -5652,7 +5667,7 @@
         <v>1936.0</v>
       </c>
       <c r="E288" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="289">
@@ -5669,7 +5684,7 @@
         <v>1937.0</v>
       </c>
       <c r="E289" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="290">
@@ -5686,7 +5701,7 @@
         <v>1938.0</v>
       </c>
       <c r="E290" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="291">
@@ -5703,7 +5718,7 @@
         <v>1939.0</v>
       </c>
       <c r="E291" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="292">
@@ -5720,7 +5735,7 @@
         <v>1940.0</v>
       </c>
       <c r="E292" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="293">
@@ -5737,7 +5752,7 @@
         <v>1941.0</v>
       </c>
       <c r="E293" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="294">
@@ -5754,7 +5769,7 @@
         <v>1942.0</v>
       </c>
       <c r="E294" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="295">
@@ -5771,7 +5786,7 @@
         <v>1943.0</v>
       </c>
       <c r="E295" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="296">
@@ -5788,7 +5803,7 @@
         <v>1944.0</v>
       </c>
       <c r="E296" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="297">
@@ -5805,7 +5820,7 @@
         <v>1945.0</v>
       </c>
       <c r="E297" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="298">
@@ -5822,7 +5837,7 @@
         <v>1946.0</v>
       </c>
       <c r="E298" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="299">
@@ -5839,7 +5854,7 @@
         <v>1947.0</v>
       </c>
       <c r="E299" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="300">
@@ -5856,7 +5871,7 @@
         <v>1948.0</v>
       </c>
       <c r="E300" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="301">
@@ -5873,7 +5888,7 @@
         <v>1949.0</v>
       </c>
       <c r="E301" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="302">
@@ -5890,7 +5905,7 @@
         <v>1950.0</v>
       </c>
       <c r="E302" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="303">
@@ -5907,7 +5922,7 @@
         <v>1951.0</v>
       </c>
       <c r="E303" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="304">
@@ -5924,7 +5939,7 @@
         <v>1952.0</v>
       </c>
       <c r="E304" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="305">
@@ -5941,7 +5956,7 @@
         <v>1953.0</v>
       </c>
       <c r="E305" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="306">
@@ -5958,7 +5973,7 @@
         <v>1954.0</v>
       </c>
       <c r="E306" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="307">
@@ -5975,7 +5990,7 @@
         <v>1955.0</v>
       </c>
       <c r="E307" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="308">
@@ -5992,7 +6007,7 @@
         <v>1956.0</v>
       </c>
       <c r="E308" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="309">
@@ -6009,7 +6024,7 @@
         <v>1957.0</v>
       </c>
       <c r="E309" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="310">
@@ -6026,7 +6041,7 @@
         <v>1958.0</v>
       </c>
       <c r="E310" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="311">
@@ -6043,7 +6058,7 @@
         <v>1959.0</v>
       </c>
       <c r="E311" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="312">
@@ -6060,7 +6075,7 @@
         <v>1960.0</v>
       </c>
       <c r="E312" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="313">
@@ -6077,7 +6092,7 @@
         <v>1961.0</v>
       </c>
       <c r="E313" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="314">
@@ -6094,7 +6109,7 @@
         <v>1962.0</v>
       </c>
       <c r="E314" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="315">
@@ -6111,7 +6126,7 @@
         <v>1963.0</v>
       </c>
       <c r="E315" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="316">
@@ -6128,7 +6143,7 @@
         <v>1964.0</v>
       </c>
       <c r="E316" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="317">
@@ -6145,7 +6160,7 @@
         <v>1965.0</v>
       </c>
       <c r="E317" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="318">
@@ -6162,7 +6177,7 @@
         <v>1966.0</v>
       </c>
       <c r="E318" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="319">
@@ -6179,7 +6194,7 @@
         <v>1967.0</v>
       </c>
       <c r="E319" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="320">
@@ -6196,7 +6211,7 @@
         <v>1968.0</v>
       </c>
       <c r="E320" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="321">
@@ -6213,7 +6228,7 @@
         <v>1969.0</v>
       </c>
       <c r="E321" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="322">
@@ -6230,7 +6245,7 @@
         <v>1970.0</v>
       </c>
       <c r="E322" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="323">
@@ -6247,7 +6262,7 @@
         <v>1971.0</v>
       </c>
       <c r="E323" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="324">
@@ -6264,7 +6279,7 @@
         <v>1972.0</v>
       </c>
       <c r="E324" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="325">
@@ -6281,7 +6296,7 @@
         <v>1973.0</v>
       </c>
       <c r="E325" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="326">
@@ -6298,7 +6313,7 @@
         <v>1974.0</v>
       </c>
       <c r="E326" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="327">
@@ -6315,7 +6330,7 @@
         <v>1975.0</v>
       </c>
       <c r="E327" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="328">
@@ -6332,7 +6347,7 @@
         <v>1976.0</v>
       </c>
       <c r="E328" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="329">
@@ -6349,7 +6364,7 @@
         <v>1977.0</v>
       </c>
       <c r="E329" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="330">
@@ -6366,7 +6381,7 @@
         <v>1978.0</v>
       </c>
       <c r="E330" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="331">
@@ -6383,7 +6398,7 @@
         <v>1979.0</v>
       </c>
       <c r="E331" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="332">
@@ -6400,7 +6415,7 @@
         <v>1980.0</v>
       </c>
       <c r="E332" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="333">
@@ -6417,7 +6432,7 @@
         <v>1981.0</v>
       </c>
       <c r="E333" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="334">
@@ -6434,7 +6449,7 @@
         <v>1982.0</v>
       </c>
       <c r="E334" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="335">
@@ -6451,7 +6466,7 @@
         <v>1983.0</v>
       </c>
       <c r="E335" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="336">
@@ -6468,7 +6483,7 @@
         <v>1984.0</v>
       </c>
       <c r="E336" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="337">
@@ -6485,7 +6500,7 @@
         <v>1985.0</v>
       </c>
       <c r="E337" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="338">
@@ -6502,7 +6517,7 @@
         <v>1986.0</v>
       </c>
       <c r="E338" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="339">
@@ -6519,7 +6534,7 @@
         <v>1987.0</v>
       </c>
       <c r="E339" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="340">
@@ -6536,7 +6551,7 @@
         <v>1988.0</v>
       </c>
       <c r="E340" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="341">
@@ -6553,7 +6568,7 @@
         <v>1989.0</v>
       </c>
       <c r="E341" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="342">
@@ -6570,7 +6585,7 @@
         <v>1990.0</v>
       </c>
       <c r="E342" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="343">
@@ -6587,7 +6602,7 @@
         <v>1991.0</v>
       </c>
       <c r="E343" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="344">
@@ -6604,7 +6619,7 @@
         <v>1992.0</v>
       </c>
       <c r="E344" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="345">
@@ -6621,7 +6636,7 @@
         <v>1993.0</v>
       </c>
       <c r="E345" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="346">
@@ -6638,7 +6653,7 @@
         <v>1994.0</v>
       </c>
       <c r="E346" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="347">
@@ -6655,7 +6670,7 @@
         <v>1995.0</v>
       </c>
       <c r="E347" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="348">
@@ -6672,7 +6687,7 @@
         <v>1996.0</v>
       </c>
       <c r="E348" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="349">
@@ -6689,7 +6704,7 @@
         <v>1997.0</v>
       </c>
       <c r="E349" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="350">
@@ -6706,7 +6721,7 @@
         <v>1998.0</v>
       </c>
       <c r="E350" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="351">
@@ -6723,7 +6738,7 @@
         <v>1999.0</v>
       </c>
       <c r="E351" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="352">
@@ -6740,7 +6755,7 @@
         <v>2000.0</v>
       </c>
       <c r="E352" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="353">
@@ -6757,7 +6772,7 @@
         <v>2001.0</v>
       </c>
       <c r="E353" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="354">
@@ -6774,7 +6789,7 @@
         <v>2002.0</v>
       </c>
       <c r="E354" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="355">
@@ -6791,7 +6806,7 @@
         <v>2003.0</v>
       </c>
       <c r="E355" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="356">
@@ -6808,7 +6823,7 @@
         <v>2004.0</v>
       </c>
       <c r="E356" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="357">
@@ -6825,7 +6840,7 @@
         <v>2005.0</v>
       </c>
       <c r="E357" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="358">
@@ -6842,7 +6857,7 @@
         <v>2006.0</v>
       </c>
       <c r="E358" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="359">
@@ -6859,7 +6874,7 @@
         <v>2007.0</v>
       </c>
       <c r="E359" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="360">
@@ -6876,7 +6891,7 @@
         <v>2008.0</v>
       </c>
       <c r="E360" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="361">
@@ -6893,7 +6908,7 @@
         <v>2009.0</v>
       </c>
       <c r="E361" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="362">
@@ -6910,7 +6925,109 @@
         <v>2010.0</v>
       </c>
       <c r="E362" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E363" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E364" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E365" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E366" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E367" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E368" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -6928,50 +7045,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
